--- a/Overall Stats/Holmes/Holmes Report.xlsx
+++ b/Overall Stats/Holmes/Holmes Report.xlsx
@@ -1,39 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Yearly Reports\2019\Holmes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Holmes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E14FFE0-2888-4029-AEF5-B35AC6451AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1906712-3772-486A-BBBA-494839264356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B30CD63E-51D2-4F2D-85E5-A616C715E5C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B30CD63E-51D2-4F2D-85E5-A616C715E5C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
     <sheet name="2019" sheetId="3" r:id="rId2"/>
-    <sheet name="Overall Stats" sheetId="2" r:id="rId3"/>
+    <sheet name="2020" sheetId="4" r:id="rId3"/>
+    <sheet name="Overall Stats" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -114,6 +109,18 @@
   </si>
   <si>
     <t>4 Rainbow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2020 Holmes</t>
+  </si>
+  <si>
+    <t>1 LM Bass</t>
+  </si>
+  <si>
+    <t>11 Rainbow</t>
+  </si>
+  <si>
+    <t>LM Bass</t>
   </si>
 </sst>
 </file>
@@ -219,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,17 +269,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,11 +420,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$2</c:f>
+              <c:f>'Overall Stats'!$A$2:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rainbow</c:v>
+                  <c:v>Rainbow LM Bass</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -516,12 +526,15 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$3</c:f>
+              <c:f>'Overall Stats'!$A$3:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,11 +802,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$5</c:f>
+              <c:f>'Overall Stats'!$A$5:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rainbow</c:v>
+                  <c:v>Rainbow LM Bass</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -846,14 +859,60 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$6</c:f>
+              <c:f>'Overall Stats'!$A$6:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2489,20 +2548,20 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2550,12 +2609,12 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2613,7 +2672,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G2" sqref="G2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,23 +2698,23 @@
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
@@ -2717,12 +2776,12 @@
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -2927,81 +2986,364 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551479E0-F327-4AAA-9602-81D94B129F8D}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7">
+        <f>SUM(G4/$E10*100)</f>
+        <v>95</v>
+      </c>
+      <c r="H7" s="7">
+        <f>SUM(H4/$E10*100)</f>
+        <v>5</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9">
+        <f>SUM(E4:E9)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="16">
+        <f>AVERAGE(E4:E9)</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534534C3-B346-40AC-A74B-EBA4242E01FF}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <f>SUM('2018'!F4+'2019'!G4)</f>
-        <v>60</v>
+        <f>SUM('2018'!F4+'2019'!G4+'2020'!G4)</f>
+        <v>79</v>
+      </c>
+      <c r="B3" s="7">
+        <f>SUM('2020'!H4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <f>SUM(A3/B8*100)</f>
-        <v>100</v>
+        <f>SUM(A3/$B8*100)</f>
+        <v>98.75</v>
+      </c>
+      <c r="B6" s="7">
+        <f>SUM(B3/$B8*100)</f>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20">
-        <f>SUM('2018'!D6+'2019'!E13)</f>
-        <v>60</v>
+      <c r="B8" s="18">
+        <f>SUM('2018'!D6+'2019'!E13+'2020'!E10)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="20">
-        <f>SUM('2018'!D7+'2019'!E14)</f>
-        <v>11</v>
+      <c r="B9" s="18">
+        <f>SUM('2018'!D7+'2019'!E14+'2020'!E11)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="19">
         <f>SUM(B8/B9)</f>
-        <v>5.4545454545454541</v>
+        <v>4.7058823529411766</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/Overall Stats/Holmes/Holmes Report.xlsx
+++ b/Overall Stats/Holmes/Holmes Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Holmes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1906712-3772-486A-BBBA-494839264356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CDD278-9963-48DD-B71E-28484332389D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B30CD63E-51D2-4F2D-85E5-A616C715E5C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B30CD63E-51D2-4F2D-85E5-A616C715E5C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>total species caught</a:t>
+              <a:t>TOTAL SPECIES CAUGHT</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -418,17 +418,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Overall Stats'!$A$2:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rainbow LM Bass</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -524,6 +513,20 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Stats'!$A$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LM Bass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rainbow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Overall Stats'!$A$3:$B$3</c:f>
@@ -531,17 +534,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-94E3-4A36-96C1-4C76CFFC5DCC}"/>
+              <c16:uniqueId val="{00000000-1288-49EF-AEAB-BFE18E92C0A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -556,18 +559,19 @@
         <c:gapWidth val="84"/>
         <c:gapDepth val="53"/>
         <c:shape val="box"/>
-        <c:axId val="2103514320"/>
-        <c:axId val="2102026992"/>
+        <c:axId val="783507407"/>
+        <c:axId val="783492015"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2103514320"/>
+        <c:axId val="783507407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -596,15 +600,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102026992"/>
+        <c:crossAx val="783492015"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102026992"/>
+        <c:axId val="783492015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,7 +618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103514320"/>
+        <c:crossAx val="783507407"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -713,8 +717,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>PERCENT SPECIES CAUGHT</a:t>
+              <a:t>PERCENT SPECIES</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> CAUGHT</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -800,17 +809,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Overall Stats'!$A$5:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rainbow LM Bass</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -853,11 +851,6 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7513-49E9-A42E-56E504639F0E}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -902,6 +895,20 @@
               <a:sp3d/>
             </c:spPr>
           </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall Stats'!$A$5:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>LM Bass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rainbow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Overall Stats'!$A$6:$B$6</c:f>
@@ -909,17 +916,17 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>98.75</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.25</c:v>
+                  <c:v>98.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-275D-491D-8782-911251B3C77E}"/>
+              <c16:uniqueId val="{00000000-8BC3-4641-B78A-95009B1CB806}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -955,7 +962,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
@@ -2155,20 +2162,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708CBECE-94AB-4F2F-AE98-29A7719BC284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C53D2DF-4A70-4E70-B320-673B1646E6D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,20 +2198,20 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C134368-9E93-41E7-8185-90D6E21795FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEAC50A-D6E1-4EF7-9D2D-34B194E12E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2989,7 +2996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551479E0-F327-4AAA-9602-81D94B129F8D}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -3257,14 +3264,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534534C3-B346-40AC-A74B-EBA4242E01FF}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3277,20 +3284,20 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
+        <f>SUM('2020'!H4)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
         <f>SUM('2018'!F4+'2019'!G4+'2020'!G4)</f>
         <v>79</v>
-      </c>
-      <c r="B3" s="7">
-        <f>SUM('2020'!H4)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3303,20 +3310,20 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>SUM(A3/$B8*100)</f>
-        <v>98.75</v>
+        <v>1.25</v>
       </c>
       <c r="B6" s="7">
         <f>SUM(B3/$B8*100)</f>
-        <v>1.25</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/Overall Stats/Holmes/Holmes Report.xlsx
+++ b/Overall Stats/Holmes/Holmes Report.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Holmes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CDD278-9963-48DD-B71E-28484332389D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6597B5-B8F8-448A-8544-1DA19B7C6B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B30CD63E-51D2-4F2D-85E5-A616C715E5C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{B30CD63E-51D2-4F2D-85E5-A616C715E5C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
     <sheet name="2019" sheetId="3" r:id="rId2"/>
     <sheet name="2020" sheetId="4" r:id="rId3"/>
-    <sheet name="Overall Stats" sheetId="2" r:id="rId4"/>
+    <sheet name="2021" sheetId="5" r:id="rId4"/>
+    <sheet name="Overall Stats" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -121,6 +129,21 @@
   </si>
   <si>
     <t>LM Bass</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>26 Rainbow</t>
+  </si>
+  <si>
+    <t>16 Rainbow</t>
+  </si>
+  <si>
+    <t>11Rainbow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2021 Holmes</t>
   </si>
 </sst>
 </file>
@@ -226,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,10 +301,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -537,7 +572,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,6 +886,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1D90-4293-A5EC-A598611A5529}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -894,6 +934,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1D90-4293-A5EC-A598611A5529}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -913,13 +958,13 @@
             <c:numRef>
               <c:f>'Overall Stats'!$A$6:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.25</c:v>
+                  <c:v>0.57803468208092479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.75</c:v>
+                  <c:v>99.421965317919074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,20 +2600,20 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2616,12 +2661,12 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2705,23 +2750,23 @@
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
@@ -2783,12 +2828,12 @@
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -2997,7 +3042,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G2" sqref="G2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3026,23 +3071,23 @@
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
@@ -3110,12 +3155,12 @@
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -3261,11 +3306,314 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07368238-BC01-4FDF-8294-4AC21C447B4E}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
+        <v>93</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7">
+        <v>26</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7">
+        <f>SUM(H4/F14*100)</f>
+        <v>100</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="9">
+        <f>SUM(F4:F13)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="16">
+        <f>AVERAGE(F4:F13)</f>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534534C3-B346-40AC-A74B-EBA4242E01FF}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3275,12 +3623,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3296,17 +3644,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <f>SUM('2018'!F4+'2019'!G4+'2020'!G4)</f>
-        <v>79</v>
+        <f>SUM('2018'!F4+'2019'!G4+'2020'!G4+'2021'!H4)</f>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3317,13 +3665,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="26">
         <f>SUM(A3/$B8*100)</f>
-        <v>1.25</v>
-      </c>
-      <c r="B6" s="7">
+        <v>0.57803468208092479</v>
+      </c>
+      <c r="B6" s="26">
         <f>SUM(B3/$B8*100)</f>
-        <v>98.75</v>
+        <v>99.421965317919074</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3331,8 +3679,8 @@
         <v>9</v>
       </c>
       <c r="B8" s="18">
-        <f>SUM('2018'!D6+'2019'!E13+'2020'!E10)</f>
-        <v>80</v>
+        <f>SUM('2018'!D6+'2019'!E13+'2020'!E10+'2021'!F14)</f>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3340,8 +3688,8 @@
         <v>10</v>
       </c>
       <c r="B9" s="18">
-        <f>SUM('2018'!D7+'2019'!E14+'2020'!E11)</f>
-        <v>17</v>
+        <f>SUM('2018'!D7+'2019'!E14+'2020'!E11+'2021'!F15)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3350,7 +3698,7 @@
       </c>
       <c r="B10" s="19">
         <f>SUM(B8/B9)</f>
-        <v>4.7058823529411766</v>
+        <v>6.4074074074074074</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
